--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -7,19 +7,52 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Total activity points = 115</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -377,20 +410,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A6"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="2:5">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="1">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
